--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Airport_cost</t>
   </si>
@@ -51,6 +51,42 @@
   </si>
   <si>
     <t>% cost efficiency increase from Roadways</t>
+  </si>
+  <si>
+    <t>Cost function type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight for Dallas </t>
+  </si>
+  <si>
+    <t>Airport Locations</t>
+  </si>
+  <si>
+    <t>No. of Airports</t>
+  </si>
+  <si>
+    <t>Weight for others</t>
+  </si>
+  <si>
+    <t>Dallas,Las vegas,Miami,NewYork</t>
+  </si>
+  <si>
+    <t>Austin,Florida,Las vegas,Miami,New York</t>
+  </si>
+  <si>
+    <t>0.5 for Dallas</t>
+  </si>
+  <si>
+    <t>0.4 for dallas</t>
+  </si>
+  <si>
+    <t>0.3 for Dallas</t>
+  </si>
+  <si>
+    <t>0.8 for Oklahoma</t>
+  </si>
+  <si>
+    <t>Chicago,Florida,Las vegas,Miami,New York</t>
   </si>
 </sst>
 </file>
@@ -80,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,11 +124,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -104,7 +158,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,262 +497,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="11.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>100</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="2">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="F2" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.18921277997399999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.16432806324099999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>300</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.139443346509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>400</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.114558629776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>500</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8.1521739130400006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>600</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6.0540184453200002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>700</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>80</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.53293807642E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>800</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5.2700922266100004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="6">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6">
+        <v>100</v>
+      </c>
+      <c r="H10" s="6">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
-        <v>0.28312106959799999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="I10" s="7">
+        <v>8.0123017157699997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
         <v>200</v>
       </c>
-      <c r="C3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>80</v>
-      </c>
-      <c r="F3" s="2">
-        <v>100</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.23743592453599999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="D11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5.8077047588200002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
         <v>300</v>
       </c>
-      <c r="C4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>80</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="D12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>80</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>4.5192618970499997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>400</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3.2308190352900001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>500</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>80</v>
+      </c>
+      <c r="G14" s="2">
+        <v>100</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>600</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" s="2">
+        <v>100</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>700</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>80</v>
+      </c>
+      <c r="G16" s="2">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-6.3E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>800</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2">
+        <v>100</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-1.9220000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:9" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
+        <v>500</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4">
+        <v>8.1521739130400006E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2">
+        <v>500</v>
+      </c>
+      <c r="D26" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="4">
-        <v>0.19183004809000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>400</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>80</v>
-      </c>
-      <c r="F5" s="2">
-        <v>100</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="E26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4">
+        <v>7.4430676490299996E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2">
+        <v>500</v>
+      </c>
+      <c r="D27" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="4">
-        <v>0.151508745971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="E27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="4">
+        <v>9.9755700325699997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2">
         <v>500</v>
       </c>
-      <c r="C6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>80</v>
-      </c>
-      <c r="F6" s="2">
-        <v>100</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="D28" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="4">
-        <v>0.111583786926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>600</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>80</v>
-      </c>
-      <c r="F7" s="2">
-        <v>100</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>7.1658827881400003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>700</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>80</v>
-      </c>
-      <c r="F8" s="2">
-        <v>100</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2.81139354225E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>800</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>80</v>
-      </c>
-      <c r="F9" s="2">
-        <v>100</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="4">
-        <v>-6.3000000000000003E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H10" s="4"/>
+      <c r="E28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1.1917009602199999E-2</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:XFD21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
